--- a/hometasks_from_Ignat.xlsx
+++ b/hometasks_from_Ignat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12015" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="дз 1 (копия)" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,15 @@
     <sheet name="дз3" sheetId="4" r:id="rId3"/>
     <sheet name="дз4" sheetId="2" r:id="rId4"/>
     <sheet name="дз5" sheetId="5" r:id="rId5"/>
+    <sheet name="дз6" sheetId="6" r:id="rId6"/>
+    <sheet name="дз7" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="110">
   <si>
     <t>0/9</t>
   </si>
@@ -290,6 +292,69 @@
   </si>
   <si>
     <t>https://youtu.be/fXfrWNA-1mY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/s0QrVmAYJII</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разбор дз 5: </t>
+  </si>
+  <si>
+    <t>(не обязательно) компонента Alternative для личного творчества (можете попробовать другие пропсы и т.д., могу по ней сделать кодревью)</t>
+  </si>
+  <si>
+    <t>используйте функцию restoreState чтоб получить сохранённое и запишите в value</t>
+  </si>
+  <si>
+    <t>кнопка save уже работает, сохранённый результат можно посмотреть во вкладке Application</t>
+  </si>
+  <si>
+    <t>учитесь читать чужой код, посмотрите так же внимательно на готовые функции в файле localStorage</t>
+  </si>
+  <si>
+    <t>сделать вёрстку что бы пользователи понимали что этот текст можно редактировать</t>
+  </si>
+  <si>
+    <t>нужно доделать спан, текст которого можно редактировать</t>
+  </si>
+  <si>
+    <t>подключите в PreJunior HW6 (изначально будет отключён)</t>
+  </si>
+  <si>
+    <t>если вы скачали проект ранее 8.03 - клонируйте проект отдельно и заберите от туда папку h6 себе в проект домашек, чтобы иметь актуальную версию домашки</t>
+  </si>
+  <si>
+    <t>https://youtu.be/_zQHigdsEIk</t>
+  </si>
+  <si>
+    <t>https://youtu.be/wg-DfUCvGiA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">разбор дз 6: </t>
+  </si>
+  <si>
+    <t>по возможности сделайте красивые стили для радио и селекта</t>
+  </si>
+  <si>
+    <t>сделайте onChangeCallback</t>
+  </si>
+  <si>
+    <t>передайте в инпут-радио пропсы</t>
+  </si>
+  <si>
+    <t>замапьте опшены в селекте, не забудьте кеи</t>
+  </si>
+  <si>
+    <t>в этой дз мы сделаем суперСелект и суперРадио</t>
+  </si>
+  <si>
+    <t>подключите в Junior HW7</t>
+  </si>
+  <si>
+    <t>если вы скачали проект ранее 15.03 - клонируйте проект отдельно и заберите от туда папку h7 себе в проект домашек, чтобы иметь актуальную версию домашки</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ywSR98YshZU</t>
   </si>
 </sst>
 </file>
@@ -438,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -498,6 +563,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1097,6 +1165,144 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6867525" cy="5514975"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image2.png" title="Изображение"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="1133475"/>
+          <a:ext cx="6867525" cy="5514975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5800725" cy="342900"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="image1.png" title="Изображение"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="5991225"/>
+          <a:ext cx="5800725" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6191250" cy="2895600"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="image3.png" title="Изображение"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="6962775"/>
+          <a:ext cx="6191250" cy="2895600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>942975</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1209675" cy="962025"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="image1.png" title="Изображение"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="942975" y="1133475"/>
+          <a:ext cx="1209675" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -2921,7 +3127,7 @@
   </sheetPr>
   <dimension ref="A2:Z64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -3485,4 +3691,759 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A2:Z69"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="14.42578125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26" ht="15" customHeight="1">
+      <c r="A2" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+    </row>
+    <row r="4" spans="1:26" ht="12.75">
+      <c r="A4" s="33">
+        <v>44044</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+    </row>
+    <row r="5" spans="1:26" ht="12.75">
+      <c r="B5" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="7" spans="1:26" ht="12.75">
+      <c r="A7" s="28">
+        <v>44045</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+    </row>
+    <row r="37" spans="1:26" ht="12.75">
+      <c r="A37" s="28">
+        <v>44046</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
+      <c r="W37" s="26"/>
+      <c r="X37" s="26"/>
+      <c r="Y37" s="26"/>
+      <c r="Z37" s="26"/>
+    </row>
+    <row r="41" spans="1:26" ht="12.75">
+      <c r="A41" s="28">
+        <v>44047</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
+      <c r="W41" s="26"/>
+      <c r="X41" s="26"/>
+      <c r="Y41" s="26"/>
+      <c r="Z41" s="26"/>
+    </row>
+    <row r="43" spans="1:26" ht="12.75">
+      <c r="A43" s="28">
+        <v>44048</v>
+      </c>
+      <c r="B43" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
+      <c r="W43" s="26"/>
+      <c r="X43" s="26"/>
+      <c r="Y43" s="26"/>
+      <c r="Z43" s="26"/>
+    </row>
+    <row r="60" spans="1:26" ht="12.75">
+      <c r="A60" s="28">
+        <v>44049</v>
+      </c>
+      <c r="B60" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="26"/>
+      <c r="R60" s="26"/>
+      <c r="S60" s="26"/>
+      <c r="T60" s="26"/>
+      <c r="U60" s="26"/>
+      <c r="V60" s="26"/>
+      <c r="W60" s="26"/>
+      <c r="X60" s="26"/>
+      <c r="Y60" s="26"/>
+      <c r="Z60" s="26"/>
+    </row>
+    <row r="62" spans="1:26" ht="12.75">
+      <c r="A62" s="28">
+        <v>44050</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="26"/>
+      <c r="R62" s="26"/>
+      <c r="S62" s="26"/>
+      <c r="T62" s="26"/>
+      <c r="U62" s="26"/>
+      <c r="V62" s="26"/>
+      <c r="W62" s="26"/>
+      <c r="X62" s="26"/>
+      <c r="Y62" s="26"/>
+      <c r="Z62" s="26"/>
+    </row>
+    <row r="63" spans="1:26" ht="12.75">
+      <c r="B63" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="29"/>
+      <c r="D63" s="29"/>
+      <c r="E63" s="29"/>
+      <c r="F63" s="29"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="29"/>
+      <c r="I63" s="29"/>
+      <c r="J63" s="29"/>
+      <c r="K63" s="29"/>
+    </row>
+    <row r="64" spans="1:26" ht="12.75">
+      <c r="B64" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+    </row>
+    <row r="66" spans="1:26" ht="12.75">
+      <c r="A66" s="36"/>
+      <c r="B66" s="25" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="23"/>
+      <c r="D66" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66" s="23"/>
+      <c r="F66" s="23"/>
+      <c r="G66" s="23"/>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="23"/>
+    </row>
+    <row r="67" spans="1:26" ht="12.75">
+      <c r="B67" s="53"/>
+    </row>
+    <row r="68" spans="1:26" ht="12.75">
+      <c r="B68" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26" ht="12.75">
+      <c r="B69" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="D66" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A2:Z31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="14.42578125" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26" ht="15" customHeight="1">
+      <c r="A2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="25"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+    </row>
+    <row r="4" spans="1:26" ht="12.75">
+      <c r="A4" s="33">
+        <v>44075</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+    </row>
+    <row r="5" spans="1:26" ht="12.75">
+      <c r="B5" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="26"/>
+    </row>
+    <row r="7" spans="1:26" ht="12.75">
+      <c r="A7" s="28">
+        <v>44076</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="26"/>
+      <c r="X7" s="26"/>
+      <c r="Y7" s="26"/>
+      <c r="Z7" s="26"/>
+    </row>
+    <row r="14" spans="1:26" ht="12.75">
+      <c r="A14" s="28">
+        <v>44077</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+    </row>
+    <row r="16" spans="1:26" ht="12.75">
+      <c r="A16" s="28">
+        <v>44078</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
+      <c r="W16" s="26"/>
+      <c r="X16" s="26"/>
+      <c r="Y16" s="26"/>
+      <c r="Z16" s="26"/>
+    </row>
+    <row r="18" spans="1:26" ht="12.75">
+      <c r="A18" s="28">
+        <v>44079</v>
+      </c>
+      <c r="B18" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+    </row>
+    <row r="20" spans="1:26" ht="12.75">
+      <c r="A20" s="28">
+        <v>44080</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
+      <c r="W20" s="26"/>
+      <c r="X20" s="26"/>
+      <c r="Y20" s="26"/>
+      <c r="Z20" s="26"/>
+    </row>
+    <row r="22" spans="1:26" ht="12.75">
+      <c r="A22" s="28">
+        <v>44081</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
+      <c r="W22" s="26"/>
+      <c r="X22" s="26"/>
+      <c r="Y22" s="26"/>
+      <c r="Z22" s="26"/>
+    </row>
+    <row r="24" spans="1:26" ht="12.75">
+      <c r="A24" s="28">
+        <v>44082</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
+      <c r="W24" s="26"/>
+      <c r="X24" s="26"/>
+      <c r="Y24" s="26"/>
+      <c r="Z24" s="26"/>
+    </row>
+    <row r="25" spans="1:26" ht="12.75">
+      <c r="B25" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+    </row>
+    <row r="26" spans="1:26" ht="12.75">
+      <c r="B26" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+    </row>
+    <row r="28" spans="1:26" ht="12.75">
+      <c r="A28" s="36">
+        <v>44448</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="25"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+    </row>
+    <row r="30" spans="1:26" ht="12.75">
+      <c r="B30" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="12.75">
+      <c r="B31" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="D28" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId3"/>
+</worksheet>
 </file>